--- a/Amazon_Complete_Master_Upload.xlsx
+++ b/Amazon_Complete_Master_Upload.xlsx
@@ -456,132 +456,132 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>external_product_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>external_product_id_type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>standard_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>main_image_url</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>other_image_url1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>other_image_url2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>other_image_url3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>parent_child</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>parent_sku</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>relationship_type</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>variation_theme</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>standard_price</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>main_image_url</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>other_image_url1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>other_image_url2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>other_image_url3</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>department_name</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>color_name</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>material_type</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>product_description</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>bullet_point1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>bullet_point2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>bullet_point3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>bullet_point4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>bullet_point5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>generic_keywords</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>country_of_origin</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>update_delete</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>external_product_id</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>external_product_id_type</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-1-PARENT</t>
+          <t>SWT-GEN-1766934106-1-PARENT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -621,45 +621,47 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -712,53 +714,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
           <t>False</t>
@@ -783,7 +783,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-1-S</t>
+          <t>SWT-GEN-1766934106-1-S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -796,69 +796,71 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>759</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-1-PARENT</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-1-PARENT</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>759</v>
-      </c>
-      <c r="J3" t="n">
-        <v>30</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -911,53 +913,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr">
         <is>
           <t>False</t>
@@ -982,7 +982,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-1-M</t>
+          <t>SWT-GEN-1766934106-1-M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -995,69 +995,71 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>759</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-1-PARENT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-1-PARENT</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>759</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1110,53 +1112,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr">
         <is>
           <t>False</t>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-1-L</t>
+          <t>SWT-GEN-1766934106-1-L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1194,69 +1194,71 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>759</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-1-PARENT</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-1-PARENT</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>759</v>
-      </c>
-      <c r="J5" t="n">
-        <v>30</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1309,53 +1311,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr">
         <is>
           <t>False</t>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-1-XL</t>
+          <t>SWT-GEN-1766934106-1-XL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1393,69 +1393,71 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>759</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-1-PARENT</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-1-PARENT</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>759</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1508,53 +1510,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr">
         <is>
           <t>False</t>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-1-2XL</t>
+          <t>SWT-GEN-1766934106-1-2XL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1592,69 +1592,71 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>759</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-1-PARENT</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-1-PARENT</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>759</v>
-      </c>
-      <c r="J7" t="n">
-        <v>30</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>2XL</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1707,53 +1709,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr">
         <is>
           <t>False</t>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-2-PARENT</t>
+          <t>SWT-GEN-1766934106-2-PARENT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1791,45 +1791,47 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1879,53 +1881,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr">
         <is>
           <t>False</t>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-2-S</t>
+          <t>SWT-GEN-1766934106-2-S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1963,69 +1963,71 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>768</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-2-PARENT</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-2-PARENT</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>768</v>
-      </c>
-      <c r="J9" t="n">
-        <v>30</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2075,53 +2077,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr">
         <is>
           <t>False</t>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-2-M</t>
+          <t>SWT-GEN-1766934106-2-M</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2159,69 +2159,71 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>768</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-2-PARENT</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-2-PARENT</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>768</v>
-      </c>
-      <c r="J10" t="n">
-        <v>30</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2271,53 +2273,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr">
         <is>
           <t>False</t>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-2-L</t>
+          <t>SWT-GEN-1766934106-2-L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2355,69 +2355,71 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>768</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-2-PARENT</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-2-PARENT</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>768</v>
-      </c>
-      <c r="J11" t="n">
-        <v>30</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2467,53 +2469,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr">
         <is>
           <t>False</t>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-2-XL</t>
+          <t>SWT-GEN-1766934106-2-XL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2551,69 +2551,71 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>768</v>
+      </c>
+      <c r="H12" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-2-PARENT</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-2-PARENT</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>768</v>
-      </c>
-      <c r="J12" t="n">
-        <v>30</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2663,53 +2665,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
           <t>False</t>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-2-2XL</t>
+          <t>SWT-GEN-1766934106-2-2XL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2747,69 +2747,71 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>768</v>
+      </c>
+      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-2-PARENT</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-2-PARENT</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>768</v>
-      </c>
-      <c r="J13" t="n">
-        <v>30</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>2XL</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2859,53 +2861,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr">
         <is>
           <t>False</t>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-3-PARENT</t>
+          <t>SWT-GEN-1766934106-3-PARENT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2943,45 +2943,47 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3034,53 +3036,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr">
         <is>
           <t>False</t>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-3-S</t>
+          <t>SWT-GEN-1766934106-3-S</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3118,69 +3118,71 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>758</v>
+      </c>
+      <c r="H15" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-3-PARENT</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-3-PARENT</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>758</v>
-      </c>
-      <c r="J15" t="n">
-        <v>30</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3233,53 +3235,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr">
         <is>
           <t>False</t>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-3-M</t>
+          <t>SWT-GEN-1766934106-3-M</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3317,69 +3317,71 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>758</v>
+      </c>
+      <c r="H16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-3-PARENT</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-3-PARENT</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>758</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3432,53 +3434,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr">
         <is>
           <t>False</t>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-3-L</t>
+          <t>SWT-GEN-1766934106-3-L</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3516,69 +3516,71 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>758</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-3-PARENT</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-3-PARENT</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>758</v>
-      </c>
-      <c r="J17" t="n">
-        <v>30</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3631,53 +3633,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
           <t>False</t>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-3-XL</t>
+          <t>SWT-GEN-1766934106-3-XL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3715,69 +3715,71 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>758</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-3-PARENT</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-3-PARENT</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>758</v>
-      </c>
-      <c r="J18" t="n">
-        <v>30</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3830,53 +3832,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr">
         <is>
           <t>False</t>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-3-2XL</t>
+          <t>SWT-GEN-1766934106-3-2XL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3914,69 +3914,71 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>758</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-3-PARENT</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-3-PARENT</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>758</v>
-      </c>
-      <c r="J19" t="n">
-        <v>30</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>2XL</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4029,53 +4031,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr">
         <is>
           <t>False</t>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-4-PARENT</t>
+          <t>SWT-GEN-1766934106-4-PARENT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4113,45 +4113,47 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4201,53 +4203,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr">
         <is>
           <t>False</t>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-4-S</t>
+          <t>SWT-GEN-1766934106-4-S</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4285,69 +4285,71 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>767</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-4-PARENT</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-4-PARENT</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>767</v>
-      </c>
-      <c r="J21" t="n">
-        <v>30</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4397,53 +4399,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr">
         <is>
           <t>False</t>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-4-M</t>
+          <t>SWT-GEN-1766934106-4-M</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4481,69 +4481,71 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>767</v>
+      </c>
+      <c r="H22" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-4-PARENT</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-4-PARENT</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>767</v>
-      </c>
-      <c r="J22" t="n">
-        <v>30</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4593,53 +4595,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
           <t>False</t>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-4-L</t>
+          <t>SWT-GEN-1766934106-4-L</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4677,69 +4677,71 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>767</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-4-PARENT</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-4-PARENT</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>767</v>
-      </c>
-      <c r="J23" t="n">
-        <v>30</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4789,53 +4791,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr">
         <is>
           <t>False</t>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-4-XL</t>
+          <t>SWT-GEN-1766934106-4-XL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4873,69 +4873,71 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>767</v>
+      </c>
+      <c r="H24" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-4-PARENT</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-4-PARENT</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>767</v>
-      </c>
-      <c r="J24" t="n">
-        <v>30</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4985,53 +4987,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr">
         <is>
           <t>False</t>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-4-2XL</t>
+          <t>SWT-GEN-1766934106-4-2XL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5069,69 +5069,71 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>767</v>
+      </c>
+      <c r="H25" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-4-PARENT</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-4-PARENT</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>767</v>
-      </c>
-      <c r="J25" t="n">
-        <v>30</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>2XL</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5181,53 +5183,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr">
         <is>
           <t>False</t>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-5-PARENT</t>
+          <t>SWT-GEN-1766934106-5-PARENT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5265,45 +5265,47 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5354,53 +5356,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr">
         <is>
           <t>False</t>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-5-S</t>
+          <t>SWT-GEN-1766934106-5-S</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5438,69 +5438,71 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>820</v>
+      </c>
+      <c r="H27" t="n">
+        <v>30</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-5-PARENT</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-5-PARENT</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>820</v>
-      </c>
-      <c r="J27" t="n">
-        <v>30</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5551,53 +5553,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
           <t>False</t>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-5-M</t>
+          <t>SWT-GEN-1766934106-5-M</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5635,69 +5635,71 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>820</v>
+      </c>
+      <c r="H28" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-5-PARENT</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-5-PARENT</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>820</v>
-      </c>
-      <c r="J28" t="n">
-        <v>30</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5748,53 +5750,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr">
         <is>
           <t>False</t>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-5-L</t>
+          <t>SWT-GEN-1766934106-5-L</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5832,69 +5832,71 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>820</v>
+      </c>
+      <c r="H29" t="n">
+        <v>30</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-5-PARENT</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-5-PARENT</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>820</v>
-      </c>
-      <c r="J29" t="n">
-        <v>30</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5945,53 +5947,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr">
         <is>
           <t>False</t>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-5-XL</t>
+          <t>SWT-GEN-1766934106-5-XL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6029,69 +6029,71 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>820</v>
+      </c>
+      <c r="H30" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-5-PARENT</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-5-PARENT</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>820</v>
-      </c>
-      <c r="J30" t="n">
-        <v>30</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6142,53 +6144,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr">
         <is>
           <t>False</t>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-5-2XL</t>
+          <t>SWT-GEN-1766934106-5-2XL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6226,69 +6226,71 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>820</v>
+      </c>
+      <c r="H31" t="n">
+        <v>30</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-5-PARENT</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-5-PARENT</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>820</v>
-      </c>
-      <c r="J31" t="n">
-        <v>30</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>2XL</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6339,53 +6341,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr">
         <is>
           <t>False</t>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-6</t>
+          <t>SWT-GEN-1766934106-6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6425,47 +6425,49 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
+      <c r="G32" t="n">
         <v>554</v>
       </c>
-      <c r="J32" t="n">
+      <c r="H32" t="n">
         <v>50</v>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-6_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-6_img2.jpg</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-6_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-6_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-6_img3.jpg</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-6_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
         <is>
           <t>High Quality Material</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6515,45 +6517,43 @@
 More Information</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>MATERIAL: High quality High Quality Material, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr">
         <is>
           <t>premium quality, durable material, latest style, gift item</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
           <t>False</t>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-7-PARENT</t>
+          <t>SWT-GEN-1766934106-7-PARENT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6591,45 +6591,47 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
         <is>
           <t>Rayon</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6679,53 +6681,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr">
         <is>
           <t>False</t>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-7-S</t>
+          <t>SWT-GEN-1766934106-7-S</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6763,69 +6763,71 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>703</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-7-PARENT</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-7-PARENT</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>703</v>
-      </c>
-      <c r="J34" t="n">
-        <v>30</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>Rayon</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6875,53 +6877,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr">
         <is>
           <t>False</t>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-7-M</t>
+          <t>SWT-GEN-1766934106-7-M</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6959,69 +6959,71 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>703</v>
+      </c>
+      <c r="H35" t="n">
+        <v>30</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-7-PARENT</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-7-PARENT</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>703</v>
-      </c>
-      <c r="J35" t="n">
-        <v>30</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>Rayon</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7071,53 +7073,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr">
         <is>
           <t>False</t>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-7-L</t>
+          <t>SWT-GEN-1766934106-7-L</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7155,69 +7155,71 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>703</v>
+      </c>
+      <c r="H36" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-7-PARENT</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-7-PARENT</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I36" t="n">
-        <v>703</v>
-      </c>
-      <c r="J36" t="n">
-        <v>30</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>Rayon</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7267,53 +7269,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AD36" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr">
         <is>
           <t>False</t>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-7-XL</t>
+          <t>SWT-GEN-1766934106-7-XL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7351,69 +7351,71 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>703</v>
+      </c>
+      <c r="H37" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-7-PARENT</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-7-PARENT</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I37" t="n">
-        <v>703</v>
-      </c>
-      <c r="J37" t="n">
-        <v>30</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>Rayon</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7463,53 +7465,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AD37" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
           <t>False</t>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-7-2XL</t>
+          <t>SWT-GEN-1766934106-7-2XL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7547,69 +7547,71 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>703</v>
+      </c>
+      <c r="H38" t="n">
+        <v>30</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-7-PARENT</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-7-PARENT</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>703</v>
-      </c>
-      <c r="J38" t="n">
-        <v>30</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>2XL</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>Rayon</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7659,53 +7661,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr">
         <is>
           <t>False</t>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-8-PARENT</t>
+          <t>SWT-GEN-1766934106-8-PARENT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7743,45 +7743,47 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7835,53 +7837,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr">
         <is>
           <t>False</t>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-8-S</t>
+          <t>SWT-GEN-1766934106-8-S</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7919,69 +7919,71 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>788</v>
+      </c>
+      <c r="H40" t="n">
+        <v>30</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-8-PARENT</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-8-PARENT</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I40" t="n">
-        <v>788</v>
-      </c>
-      <c r="J40" t="n">
-        <v>30</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8035,53 +8037,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AB40" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr">
         <is>
           <t>False</t>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-8-M</t>
+          <t>SWT-GEN-1766934106-8-M</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8119,69 +8119,71 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>788</v>
+      </c>
+      <c r="H41" t="n">
+        <v>30</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-8-PARENT</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-8-PARENT</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I41" t="n">
-        <v>788</v>
-      </c>
-      <c r="J41" t="n">
-        <v>30</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8235,53 +8237,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr">
         <is>
           <t>False</t>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-8-L</t>
+          <t>SWT-GEN-1766934106-8-L</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8319,69 +8319,71 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>788</v>
+      </c>
+      <c r="H42" t="n">
+        <v>30</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-8-PARENT</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-8-PARENT</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I42" t="n">
-        <v>788</v>
-      </c>
-      <c r="J42" t="n">
-        <v>30</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8435,53 +8437,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
           <t>False</t>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-8-XL</t>
+          <t>SWT-GEN-1766934106-8-XL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8519,69 +8519,71 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>788</v>
+      </c>
+      <c r="H43" t="n">
+        <v>30</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-8-PARENT</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-8-PARENT</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I43" t="n">
-        <v>788</v>
-      </c>
-      <c r="J43" t="n">
-        <v>30</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8635,53 +8637,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="X43" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr">
         <is>
           <t>False</t>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-8-2XL</t>
+          <t>SWT-GEN-1766934106-8-2XL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8719,69 +8719,71 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>788</v>
+      </c>
+      <c r="H44" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-8-PARENT</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-8-PARENT</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>788</v>
-      </c>
-      <c r="J44" t="n">
-        <v>30</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>2XL</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8835,53 +8837,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="X44" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AD44" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr">
         <is>
           <t>False</t>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-9-PARENT</t>
+          <t>SWT-GEN-1766934106-9-PARENT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8919,45 +8919,47 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9007,53 +9009,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AD45" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr">
         <is>
           <t>False</t>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-9-S</t>
+          <t>SWT-GEN-1766934106-9-S</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9091,69 +9091,71 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>820</v>
+      </c>
+      <c r="H46" t="n">
+        <v>30</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-9-PARENT</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-9-PARENT</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>820</v>
-      </c>
-      <c r="J46" t="n">
-        <v>30</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9203,53 +9205,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr">
         <is>
           <t>False</t>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-9-M</t>
+          <t>SWT-GEN-1766934106-9-M</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9287,69 +9287,71 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>820</v>
+      </c>
+      <c r="H47" t="n">
+        <v>30</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-9-PARENT</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-9-PARENT</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>820</v>
-      </c>
-      <c r="J47" t="n">
-        <v>30</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9399,53 +9401,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AD47" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
           <t>False</t>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-9-L</t>
+          <t>SWT-GEN-1766934106-9-L</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9483,69 +9483,71 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>820</v>
+      </c>
+      <c r="H48" t="n">
+        <v>30</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-9-PARENT</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-9-PARENT</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>820</v>
-      </c>
-      <c r="J48" t="n">
-        <v>30</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9595,53 +9597,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr">
         <is>
           <t>False</t>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-9-XL</t>
+          <t>SWT-GEN-1766934106-9-XL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9679,69 +9679,71 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>820</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-9-PARENT</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-9-PARENT</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I49" t="n">
-        <v>820</v>
-      </c>
-      <c r="J49" t="n">
-        <v>30</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9791,53 +9793,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="Y49" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AB49" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr">
         <is>
           <t>False</t>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766933418-9-2XL</t>
+          <t>SWT-GEN-1766934106-9-2XL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9875,69 +9875,71 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>820</v>
+      </c>
+      <c r="H50" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766933418-9-PARENT</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934106-9-PARENT</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
         <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="I50" t="n">
-        <v>820</v>
-      </c>
-      <c r="J50" t="n">
-        <v>30</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img2.jpg</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766933418-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>2XL</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9987,53 +9989,51 @@
 More Information</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>STYLE: Latest trendy design suitable for all occasions.</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>Sweet India Enterprises</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AD50" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr">
         <is>
           <t>False</t>

--- a/Amazon_Complete_Master_Upload.xlsx
+++ b/Amazon_Complete_Master_Upload.xlsx
@@ -456,132 +456,132 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>parent_child</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>parent_sku</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>relationship_type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>variation_theme</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>standard_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>main_image_url</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>other_image_url1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>other_image_url2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>other_image_url3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>department_name</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>color_name</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>material_type</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>product_description</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>bullet_point1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>bullet_point2</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>bullet_point3</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>bullet_point4</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>bullet_point5</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>generic_keywords</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>country_of_origin</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>update_delete</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>external_product_id</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>external_product_id_type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>standard_price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>main_image_url</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>other_image_url1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other_image_url2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>other_image_url3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>parent_child</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>parent_sku</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>relationship_type</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>variation_theme</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>department_name</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>color_name</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>material_type</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>product_description</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>bullet_point1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>bullet_point2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>bullet_point3</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>bullet_point4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>bullet_point5</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>generic_keywords</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>country_of_origin</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>update_delete</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-1-PARENT</t>
+          <t>SWT-GEN-1766934349-1-PARENT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -621,47 +621,45 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img1.jpg</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
+          <t>Multicolor</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Multicolor</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -714,51 +712,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
           <t>False</t>
@@ -783,7 +783,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-1-S</t>
+          <t>SWT-GEN-1766934349-1-S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -796,71 +796,69 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-1-PARENT</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>759</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>30</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img2.jpg</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-1-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -913,51 +911,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr">
         <is>
           <t>False</t>
@@ -982,7 +982,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-1-M</t>
+          <t>SWT-GEN-1766934349-1-M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -995,71 +995,69 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-1-PARENT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>759</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>30</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img2.jpg</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-1-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1112,51 +1110,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr">
         <is>
           <t>False</t>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-1-L</t>
+          <t>SWT-GEN-1766934349-1-L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1194,71 +1194,69 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-1-PARENT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>759</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>30</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img2.jpg</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-1-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1311,51 +1309,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr">
         <is>
           <t>False</t>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-1-XL</t>
+          <t>SWT-GEN-1766934349-1-XL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1393,71 +1393,69 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-1-PARENT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>759</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>30</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img2.jpg</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-1-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1510,51 +1508,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr">
         <is>
           <t>False</t>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-1-2XL</t>
+          <t>SWT-GEN-1766934349-1-2XL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1592,71 +1592,69 @@
           <t>Generic kurta set for women kurti pant with dupatta | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-1-PARENT</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>759</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>30</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img2.jpg</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-1_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img2.jpg</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-1-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-1_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1709,51 +1707,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr">
         <is>
           <t>False</t>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-2-PARENT</t>
+          <t>SWT-GEN-1766934349-2-PARENT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1791,47 +1791,45 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img1.jpg</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
+          <t>Multicolor</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Multicolor</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1881,51 +1879,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr">
         <is>
           <t>False</t>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-2-S</t>
+          <t>SWT-GEN-1766934349-2-S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1963,71 +1963,69 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-2-PARENT</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>768</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>30</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img2.jpg</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-2-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2077,51 +2075,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr">
         <is>
           <t>False</t>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-2-M</t>
+          <t>SWT-GEN-1766934349-2-M</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2159,71 +2159,69 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-2-PARENT</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>768</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>30</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img2.jpg</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-2-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2273,51 +2271,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr">
         <is>
           <t>False</t>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-2-L</t>
+          <t>SWT-GEN-1766934349-2-L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2355,71 +2355,69 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-2-PARENT</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>768</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>30</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img2.jpg</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-2-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2469,51 +2467,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr">
         <is>
           <t>False</t>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-2-XL</t>
+          <t>SWT-GEN-1766934349-2-XL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2551,71 +2551,69 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-2-PARENT</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>768</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>30</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img2.jpg</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-2-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2665,51 +2663,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
           <t>False</t>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-2-2XL</t>
+          <t>SWT-GEN-1766934349-2-2XL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2747,71 +2747,69 @@
           <t>Generic women kurta and pant set for women kurta sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-2-PARENT</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>768</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>30</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img2.jpg</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-2_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img2.jpg</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-2-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-2_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -2861,51 +2859,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr">
         <is>
           <t>False</t>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-3-PARENT</t>
+          <t>SWT-GEN-1766934349-3-PARENT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2943,47 +2943,45 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img1.jpg</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3036,51 +3034,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr">
         <is>
           <t>False</t>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-3-S</t>
+          <t>SWT-GEN-1766934349-3-S</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3118,71 +3118,69 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-3-PARENT</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>758</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>30</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img2.jpg</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-3-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3235,51 +3233,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr">
         <is>
           <t>False</t>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-3-M</t>
+          <t>SWT-GEN-1766934349-3-M</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3317,71 +3317,69 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-3-PARENT</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>758</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>30</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img2.jpg</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-3-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3434,51 +3432,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr">
         <is>
           <t>False</t>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-3-L</t>
+          <t>SWT-GEN-1766934349-3-L</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3516,71 +3516,69 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-3-PARENT</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>758</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>30</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img2.jpg</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-3-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3633,51 +3631,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr">
         <is>
           <t>False</t>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-3-XL</t>
+          <t>SWT-GEN-1766934349-3-XL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3715,71 +3715,69 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-3-PARENT</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>758</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>30</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img2.jpg</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-3-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -3832,51 +3830,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr">
         <is>
           <t>False</t>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-3-2XL</t>
+          <t>SWT-GEN-1766934349-3-2XL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3914,71 +3914,69 @@
           <t>Generic Women Kurta Pant Sets Women Kurta Sets With Dupatta | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-3-PARENT</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>758</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>30</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img2.jpg</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-3_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img2.jpg</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-3-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-3_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4031,51 +4029,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr">
         <is>
           <t>False</t>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-4-PARENT</t>
+          <t>SWT-GEN-1766934349-4-PARENT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4113,47 +4113,45 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img1.jpg</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4203,51 +4201,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr">
         <is>
           <t>False</t>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-4-S</t>
+          <t>SWT-GEN-1766934349-4-S</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4285,71 +4285,69 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-4-PARENT</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>767</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>30</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
-        </is>
-      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img2.jpg</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-4-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4399,51 +4397,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr">
         <is>
           <t>False</t>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-4-M</t>
+          <t>SWT-GEN-1766934349-4-M</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4481,71 +4481,69 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-4-PARENT</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>767</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>30</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img2.jpg</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-4-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4595,51 +4593,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr">
         <is>
           <t>False</t>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-4-L</t>
+          <t>SWT-GEN-1766934349-4-L</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4677,71 +4677,69 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-4-PARENT</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>767</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>30</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img2.jpg</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-4-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4791,51 +4789,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr">
         <is>
           <t>False</t>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-4-XL</t>
+          <t>SWT-GEN-1766934349-4-XL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4873,71 +4873,69 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-4-PARENT</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>767</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>30</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
-        </is>
-      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img2.jpg</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-4-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -4987,51 +4985,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr">
         <is>
           <t>False</t>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-4-2XL</t>
+          <t>SWT-GEN-1766934349-4-2XL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5069,71 +5069,69 @@
           <t>Generic kurta sets with dupattas for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-4-PARENT</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>767</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>30</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img2.jpg</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-4_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img2.jpg</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-4-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-4_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5183,51 +5181,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr">
         <is>
           <t>False</t>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-5-PARENT</t>
+          <t>SWT-GEN-1766934349-5-PARENT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5265,47 +5265,45 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img1.jpg</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
+          <t>Multicolor</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Multicolor</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5356,51 +5354,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr">
         <is>
           <t>False</t>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-5-S</t>
+          <t>SWT-GEN-1766934349-5-S</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5438,71 +5438,69 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-5-PARENT</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>820</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>30</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img2.jpg</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-5-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5553,51 +5551,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr">
         <is>
           <t>False</t>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-5-M</t>
+          <t>SWT-GEN-1766934349-5-M</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5635,71 +5635,69 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-5-PARENT</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>820</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>30</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
-        </is>
-      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img2.jpg</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-5-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5750,51 +5748,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr">
         <is>
           <t>False</t>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-5-L</t>
+          <t>SWT-GEN-1766934349-5-L</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5832,71 +5832,69 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-5-PARENT</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>820</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>30</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img2.jpg</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-5-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -5947,51 +5945,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr">
         <is>
           <t>False</t>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-5-XL</t>
+          <t>SWT-GEN-1766934349-5-XL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6029,71 +6029,69 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-5-PARENT</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>820</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>30</v>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
-        </is>
-      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img2.jpg</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-5-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6144,51 +6142,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr">
         <is>
           <t>False</t>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-5-2XL</t>
+          <t>SWT-GEN-1766934349-5-2XL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6226,71 +6226,69 @@
           <t>Generic women kurta set kurti pant sets | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-5-PARENT</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>820</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>30</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img2.jpg</t>
-        </is>
-      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-5_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img2.jpg</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-5-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-5_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6341,51 +6339,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr">
         <is>
           <t>False</t>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-6</t>
+          <t>SWT-GEN-1766934349-6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6425,49 +6425,47 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>554</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>50</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-6_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-6_img2.jpg</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-6_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-6_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-6_img2.jpg</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-6_img3.jpg</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
           <t>High Quality Material</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6517,43 +6515,45 @@
 More Information</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality High Quality Material, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality High Quality Material, designed for durability and comfort.</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
           <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>premium quality, durable material, latest style, gift item</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>premium quality, durable material, latest style, gift item</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr">
         <is>
           <t>False</t>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-7-PARENT</t>
+          <t>SWT-GEN-1766934349-7-PARENT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6591,47 +6591,45 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img1.jpg</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
           <t>Rayon</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6681,51 +6679,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr">
         <is>
           <t>False</t>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-7-S</t>
+          <t>SWT-GEN-1766934349-7-S</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6763,71 +6763,69 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-7-PARENT</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>703</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>30</v>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
-        </is>
-      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img2.jpg</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-7-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Rayon</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Rayon</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -6877,51 +6875,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr">
         <is>
           <t>False</t>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-7-M</t>
+          <t>SWT-GEN-1766934349-7-M</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6959,71 +6959,69 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-7-PARENT</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>703</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>30</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img2.jpg</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-7-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Rayon</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Rayon</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7073,51 +7071,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr">
         <is>
           <t>False</t>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-7-L</t>
+          <t>SWT-GEN-1766934349-7-L</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7155,71 +7155,69 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-7-PARENT</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>703</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>30</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
-        </is>
-      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img2.jpg</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-7-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Rayon</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Rayon</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7269,51 +7267,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr">
         <is>
           <t>False</t>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-7-XL</t>
+          <t>SWT-GEN-1766934349-7-XL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7351,71 +7351,69 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-7-PARENT</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>703</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>30</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
-        </is>
-      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img2.jpg</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-7-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Rayon</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Rayon</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7465,51 +7463,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr">
         <is>
           <t>False</t>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-7-2XL</t>
+          <t>SWT-GEN-1766934349-7-2XL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7547,71 +7547,69 @@
           <t>Generic Women partywear kurta set for women kurti pant dupatta set | Rayon | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-7-PARENT</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>703</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>30</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img2.jpg</t>
-        </is>
-      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-7_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img2.jpg</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-7-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-7_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Rayon</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Rayon</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7661,51 +7659,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Rayon, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr">
         <is>
           <t>False</t>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-8-PARENT</t>
+          <t>SWT-GEN-1766934349-8-PARENT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7743,47 +7743,45 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img1.jpg</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -7837,51 +7835,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr">
         <is>
           <t>False</t>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-8-S</t>
+          <t>SWT-GEN-1766934349-8-S</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7919,71 +7919,69 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-8-PARENT</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>788</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>30</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img2.jpg</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-8-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8037,51 +8035,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr">
         <is>
           <t>False</t>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-8-M</t>
+          <t>SWT-GEN-1766934349-8-M</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8119,71 +8119,69 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-8-PARENT</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>788</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>30</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
-        </is>
-      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img2.jpg</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-8-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8237,51 +8235,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr">
         <is>
           <t>False</t>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-8-L</t>
+          <t>SWT-GEN-1766934349-8-L</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8319,71 +8319,69 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-8-PARENT</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>788</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>30</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
-        </is>
-      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img2.jpg</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-8-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8437,51 +8435,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr">
         <is>
           <t>False</t>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-8-XL</t>
+          <t>SWT-GEN-1766934349-8-XL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8519,71 +8519,69 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-8-PARENT</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>788</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>30</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
-        </is>
-      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img2.jpg</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-8-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8637,51 +8635,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr">
         <is>
           <t>False</t>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-8-2XL</t>
+          <t>SWT-GEN-1766934349-8-2XL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8719,71 +8719,69 @@
           <t>Generic Women Kurta sets for women kurta with pant kurti pant sets for women | Cotton | Red | latest fashion for women</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-8-PARENT</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>788</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>30</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img2.jpg</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-8_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img2.jpg</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-8-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-8_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -8837,51 +8835,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr">
         <is>
           <t>False</t>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-9-PARENT</t>
+          <t>SWT-GEN-1766934349-9-PARENT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8919,47 +8919,45 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img1.jpg</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>size_name</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
+          <t>Multicolor</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Multicolor</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
-        <is>
           <t>Cotton</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9009,51 +9007,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr">
         <is>
           <t>False</t>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-9-S</t>
+          <t>SWT-GEN-1766934349-9-S</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9091,71 +9091,69 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="n">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-9-PARENT</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>820</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>30</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
-        </is>
-      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img2.jpg</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-9-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>S</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9205,51 +9203,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr">
         <is>
           <t>False</t>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-9-M</t>
+          <t>SWT-GEN-1766934349-9-M</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9287,71 +9287,69 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-9-PARENT</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>820</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>30</v>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
-        </is>
-      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img2.jpg</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-9-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9401,51 +9399,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr">
         <is>
           <t>False</t>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-9-L</t>
+          <t>SWT-GEN-1766934349-9-L</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9483,71 +9483,69 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-9-PARENT</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>820</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>30</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img2.jpg</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-9-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9597,51 +9595,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr">
         <is>
           <t>False</t>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-9-XL</t>
+          <t>SWT-GEN-1766934349-9-XL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9679,71 +9679,69 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="n">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-9-PARENT</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>820</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>30</v>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
-        </is>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img2.jpg</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-9-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9793,51 +9791,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr">
         <is>
           <t>False</t>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SWT-GEN-1766934106-9-2XL</t>
+          <t>SWT-GEN-1766934349-9-2XL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9875,71 +9875,69 @@
           <t>Generic Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants | Cotton | Multicolor | latest fashion for women</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SWT-GEN-1766934349-9-PARENT</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>size_name</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>820</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>30</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img2.jpg</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934106-9_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img2.jpg</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>SWT-GEN-1766934106-9-PARENT</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWT-GEN-1766934349-9_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Variation</t>
+          <t>Women</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>size_name</t>
+          <t>Multicolor</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Women</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Multicolor</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
-        <is>
-          <t>2XL</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>Cotton</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -9989,51 +9987,53 @@
 More Information</t>
         </is>
       </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>MATERIAL: High quality Cotton, designed for durability and comfort.</t>
+          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>STYLE: Latest trendy design suitable for all occasions.</t>
+          <t>CARE: Easy to clean and maintain.</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>QUALITY: Premium finish from Sweet India Enterprises.</t>
+          <t>MADE IN INDIA: Proudly manufactured in India.</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>CARE: Easy to clean and maintain.</t>
+          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>MADE IN INDIA: Proudly manufactured in India.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>latest fashion for women, party wear, trendy design, comfort fit, ethnic wear</t>
+          <t>Sweet India Enterprises</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Sweet India Enterprises</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
           <t>Update</t>
         </is>
       </c>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr">
         <is>
           <t>False</t>
